--- a/industry/dsi_contract/data/contract.xlsx
+++ b/industry/dsi_contract/data/contract.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="合同列表" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">合同列表!$A$1:$AN$131</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -2818,11 +2821,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2839,8 +2843,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2854,17 +2896,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2876,16 +2920,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2893,22 +2944,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2922,42 +2957,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2969,15 +2972,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2992,49 +2996,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3052,7 +3026,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3064,7 +3086,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3080,102 +3180,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3186,26 +3190,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3242,26 +3237,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3270,6 +3248,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3286,153 +3290,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3785,18 +3792,20 @@
   <sheetPr/>
   <dimension ref="A1:AN131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="9" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="23.171875" customWidth="1"/>
     <col min="10" max="10" width="60" customWidth="1"/>
     <col min="11" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
@@ -3828,7 +3837,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -3944,7 +3953,7 @@
       <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G2" t="s">
@@ -4009,7 +4018,7 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
@@ -4077,7 +4086,7 @@
       <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H4" t="s">
@@ -4142,7 +4151,7 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G5" t="s">
@@ -4210,7 +4219,7 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G6" t="s">
@@ -4278,7 +4287,7 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G7" t="s">
@@ -4346,7 +4355,7 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G8" t="s">
@@ -4414,7 +4423,7 @@
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G9" t="s">
@@ -4485,7 +4494,7 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G10" t="s">
@@ -4562,7 +4571,7 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G11" t="s">
@@ -4639,7 +4648,7 @@
       <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
@@ -4716,7 +4725,7 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G13" t="s">
@@ -4793,7 +4802,7 @@
       <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G14" t="s">
@@ -4870,7 +4879,7 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G15" t="s">
@@ -4947,7 +4956,7 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G16" t="s">
@@ -5024,7 +5033,7 @@
       <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G17" t="s">
@@ -5101,7 +5110,7 @@
       <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G18" t="s">
@@ -5178,7 +5187,7 @@
       <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G19" t="s">
@@ -5255,7 +5264,7 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G20" t="s">
@@ -5329,7 +5338,7 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G21" t="s">
@@ -5409,7 +5418,7 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G22" t="s">
@@ -5486,7 +5495,7 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G23" t="s">
@@ -5566,7 +5575,7 @@
       <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G24" t="s">
@@ -5640,7 +5649,7 @@
       <c r="C25" t="s">
         <v>217</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>218</v>
       </c>
       <c r="G25" t="s">
@@ -5711,7 +5720,7 @@
       <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G26" t="s">
@@ -5791,7 +5800,7 @@
       <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G27" t="s">
@@ -5868,7 +5877,7 @@
       <c r="C28" t="s">
         <v>42</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G28" t="s">
@@ -5948,7 +5957,7 @@
       <c r="C29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G29" t="s">
@@ -6025,7 +6034,7 @@
       <c r="C30" t="s">
         <v>42</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G30" t="s">
@@ -6102,7 +6111,7 @@
       <c r="C31" t="s">
         <v>42</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G31" t="s">
@@ -6179,7 +6188,7 @@
       <c r="C32" t="s">
         <v>42</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G32" t="s">
@@ -6256,7 +6265,7 @@
       <c r="C33" t="s">
         <v>42</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G33" t="s">
@@ -6333,7 +6342,7 @@
       <c r="C34" t="s">
         <v>42</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G34" t="s">
@@ -6410,7 +6419,7 @@
       <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G35" t="s">
@@ -6487,7 +6496,7 @@
       <c r="C36" t="s">
         <v>42</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G36" t="s">
@@ -6564,7 +6573,7 @@
       <c r="C37" t="s">
         <v>42</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G37" t="s">
@@ -6641,7 +6650,7 @@
       <c r="C38" t="s">
         <v>42</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G38" t="s">
@@ -6718,7 +6727,7 @@
       <c r="C39" t="s">
         <v>312</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>218</v>
       </c>
       <c r="G39" t="s">
@@ -6795,7 +6804,7 @@
       <c r="C40" t="s">
         <v>42</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G40" t="s">
@@ -6872,7 +6881,7 @@
       <c r="C41" t="s">
         <v>312</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>327</v>
       </c>
       <c r="G41" t="s">
@@ -6949,7 +6958,7 @@
       <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G42" t="s">
@@ -7026,7 +7035,7 @@
       <c r="C43" t="s">
         <v>42</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H43" t="s">
@@ -7100,7 +7109,7 @@
       <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G44" t="s">
@@ -7174,7 +7183,7 @@
       <c r="C45" t="s">
         <v>42</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G45" t="s">
@@ -7251,7 +7260,7 @@
       <c r="C46" t="s">
         <v>42</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>366</v>
       </c>
       <c r="G46" t="s">
@@ -7328,7 +7337,7 @@
       <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G47" t="s">
@@ -7402,7 +7411,7 @@
       <c r="C48" t="s">
         <v>42</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G48" t="s">
@@ -7479,7 +7488,7 @@
       <c r="C49" t="s">
         <v>42</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G49" t="s">
@@ -7556,7 +7565,7 @@
       <c r="C50" t="s">
         <v>42</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G50" t="s">
@@ -7633,7 +7642,7 @@
       <c r="C51" t="s">
         <v>42</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G51" t="s">
@@ -7710,7 +7719,7 @@
       <c r="C52" t="s">
         <v>42</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G52" t="s">
@@ -7787,7 +7796,7 @@
       <c r="C53" t="s">
         <v>42</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G53" t="s">
@@ -7864,7 +7873,7 @@
       <c r="C54" t="s">
         <v>42</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G54" t="s">
@@ -7941,7 +7950,7 @@
       <c r="C55" t="s">
         <v>312</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G55" t="s">
@@ -8015,7 +8024,7 @@
       <c r="C56" t="s">
         <v>42</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>439</v>
       </c>
       <c r="G56" t="s">
@@ -8095,7 +8104,7 @@
       <c r="C57" t="s">
         <v>42</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G57" t="s">
@@ -8172,7 +8181,7 @@
       <c r="C58" t="s">
         <v>312</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>218</v>
       </c>
       <c r="G58" t="s">
@@ -8246,7 +8255,7 @@
       <c r="C59" t="s">
         <v>42</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G59" t="s">
@@ -8317,7 +8326,7 @@
       <c r="C60" t="s">
         <v>42</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G60" t="s">
@@ -8394,7 +8403,7 @@
       <c r="C61" t="s">
         <v>42</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G61" t="s">
@@ -8465,7 +8474,7 @@
       <c r="C62" t="s">
         <v>42</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G62" t="s">
@@ -8539,7 +8548,7 @@
       <c r="C63" t="s">
         <v>42</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G63" t="s">
@@ -8616,7 +8625,7 @@
       <c r="C64" t="s">
         <v>42</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G64" t="s">
@@ -8690,7 +8699,7 @@
       <c r="C65" t="s">
         <v>42</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G65" t="s">
@@ -8755,7 +8764,7 @@
       <c r="C66" t="s">
         <v>42</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G66" t="s">
@@ -8820,7 +8829,7 @@
       <c r="C67" t="s">
         <v>42</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G67" t="s">
@@ -8882,7 +8891,7 @@
       <c r="C68" t="s">
         <v>42</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G68" t="s">
@@ -8941,7 +8950,7 @@
       <c r="C69" t="s">
         <v>42</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G69" t="s">
@@ -9006,7 +9015,7 @@
       <c r="C70" t="s">
         <v>42</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>530</v>
       </c>
       <c r="G70" t="s">
@@ -9071,7 +9080,7 @@
       <c r="C71" t="s">
         <v>42</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G71" t="s">
@@ -9133,7 +9142,7 @@
       <c r="C72" t="s">
         <v>42</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G72" t="s">
@@ -9204,7 +9213,7 @@
       <c r="C73" t="s">
         <v>42</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G73" t="s">
@@ -9275,7 +9284,7 @@
       <c r="C74" t="s">
         <v>42</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G74" t="s">
@@ -9340,7 +9349,7 @@
       <c r="C75" t="s">
         <v>42</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G75" t="s">
@@ -9408,7 +9417,7 @@
       <c r="C76" t="s">
         <v>42</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G76" t="s">
@@ -9476,7 +9485,7 @@
       <c r="C77" t="s">
         <v>42</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G77" t="s">
@@ -9538,7 +9547,7 @@
       <c r="C78" t="s">
         <v>42</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>218</v>
       </c>
       <c r="G78" t="s">
@@ -9603,7 +9612,7 @@
       <c r="C79" t="s">
         <v>42</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H79" t="s">
@@ -9662,7 +9671,7 @@
       <c r="C80" t="s">
         <v>42</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G80" t="s">
@@ -9724,7 +9733,7 @@
       <c r="C81" t="s">
         <v>42</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G81" t="s">
@@ -9792,7 +9801,7 @@
       <c r="C82" t="s">
         <v>42</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G82" t="s">
@@ -9863,7 +9872,7 @@
       <c r="C83" t="s">
         <v>42</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G83" t="s">
@@ -9925,7 +9934,7 @@
       <c r="C84" t="s">
         <v>42</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>327</v>
       </c>
       <c r="G84" t="s">
@@ -9984,7 +9993,7 @@
       <c r="C85" t="s">
         <v>42</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G85" t="s">
@@ -10052,7 +10061,7 @@
       <c r="C86" t="s">
         <v>42</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H86" t="s">
@@ -10108,7 +10117,7 @@
       <c r="C87" t="s">
         <v>42</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G87" t="s">
@@ -10176,7 +10185,7 @@
       <c r="C88" t="s">
         <v>42</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G88" t="s">
@@ -10238,7 +10247,7 @@
       <c r="C89" t="s">
         <v>42</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>327</v>
       </c>
       <c r="G89" t="s">
@@ -10306,7 +10315,7 @@
       <c r="C90" t="s">
         <v>42</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G90" t="s">
@@ -10377,7 +10386,7 @@
       <c r="C91" t="s">
         <v>42</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G91" t="s">
@@ -10445,7 +10454,7 @@
       <c r="C92" t="s">
         <v>42</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G92" t="s">
@@ -10510,7 +10519,7 @@
       <c r="C93" t="s">
         <v>312</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G93" t="s">
@@ -10572,7 +10581,7 @@
       <c r="C94" t="s">
         <v>42</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G94" t="s">
@@ -10637,7 +10646,7 @@
       <c r="C95" t="s">
         <v>42</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G95" t="s">
@@ -10705,7 +10714,7 @@
       <c r="C96" t="s">
         <v>42</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G96" t="s">
@@ -10773,7 +10782,7 @@
       <c r="C97" t="s">
         <v>42</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G97" t="s">
@@ -10835,7 +10844,7 @@
       <c r="C98" t="s">
         <v>42</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>715</v>
       </c>
       <c r="G98" t="s">
@@ -10900,7 +10909,7 @@
       <c r="C99" t="s">
         <v>42</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G99" t="s">
@@ -10962,7 +10971,7 @@
       <c r="C100" t="s">
         <v>42</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G100" t="s">
@@ -11030,7 +11039,7 @@
       <c r="C101" t="s">
         <v>42</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G101" t="s">
@@ -11098,7 +11107,7 @@
       <c r="C102" t="s">
         <v>42</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G102" t="s">
@@ -11163,7 +11172,7 @@
       <c r="C103" t="s">
         <v>42</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G103" t="s">
@@ -11228,7 +11237,7 @@
       <c r="C104" t="s">
         <v>42</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G104" t="s">
@@ -11296,7 +11305,7 @@
       <c r="C105" t="s">
         <v>42</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G105" t="s">
@@ -11361,7 +11370,7 @@
       <c r="C106" t="s">
         <v>42</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G106" t="s">
@@ -11429,7 +11438,7 @@
       <c r="C107" t="s">
         <v>42</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G107" t="s">
@@ -11497,7 +11506,7 @@
       <c r="C108" t="s">
         <v>42</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G108" t="s">
@@ -11556,7 +11565,7 @@
       <c r="C109" t="s">
         <v>42</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G109" t="s">
@@ -11621,7 +11630,7 @@
       <c r="C110" t="s">
         <v>42</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G110" t="s">
@@ -11686,7 +11695,7 @@
       <c r="C111" t="s">
         <v>42</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G111" t="s">
@@ -11754,7 +11763,7 @@
       <c r="C112" t="s">
         <v>42</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G112" t="s">
@@ -11822,7 +11831,7 @@
       <c r="C113" t="s">
         <v>42</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>807</v>
       </c>
       <c r="G113" t="s">
@@ -11887,7 +11896,7 @@
       <c r="C114" t="s">
         <v>42</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G114" t="s">
@@ -11952,7 +11961,7 @@
       <c r="C115" t="s">
         <v>42</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G115" t="s">
@@ -12020,7 +12029,7 @@
       <c r="C116" t="s">
         <v>312</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>218</v>
       </c>
       <c r="G116" t="s">
@@ -12082,7 +12091,7 @@
       <c r="C117" t="s">
         <v>42</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G117" t="s">
@@ -12144,7 +12153,7 @@
       <c r="C118" t="s">
         <v>312</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>218</v>
       </c>
       <c r="G118" t="s">
@@ -12206,7 +12215,7 @@
       <c r="C119" t="s">
         <v>42</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G119" t="s">
@@ -12271,7 +12280,7 @@
       <c r="C120" t="s">
         <v>42</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G120" t="s">
@@ -12336,7 +12345,7 @@
       <c r="C121" t="s">
         <v>42</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G121" t="s">
@@ -12404,7 +12413,7 @@
       <c r="C122" t="s">
         <v>42</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>327</v>
       </c>
       <c r="G122" t="s">
@@ -12472,7 +12481,7 @@
       <c r="C123" t="s">
         <v>42</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G123" t="s">
@@ -12537,7 +12546,7 @@
       <c r="C124" t="s">
         <v>42</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G124" t="s">
@@ -12608,7 +12617,7 @@
       <c r="C125" t="s">
         <v>312</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G125" t="s">
@@ -12673,7 +12682,7 @@
       <c r="C126" t="s">
         <v>42</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G126" t="s">
@@ -12732,7 +12741,7 @@
       <c r="C127" t="s">
         <v>42</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G127" t="s">
@@ -12800,7 +12809,7 @@
       <c r="C128" t="s">
         <v>42</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G128" t="s">
@@ -12868,7 +12877,7 @@
       <c r="C129" t="s">
         <v>42</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>907</v>
       </c>
       <c r="G129" t="s">
@@ -12936,7 +12945,7 @@
       <c r="C130" t="s">
         <v>42</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G130" t="s">
@@ -13001,7 +13010,7 @@
       <c r="C131" t="s">
         <v>42</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>923</v>
       </c>
       <c r="G131" t="s">
@@ -13061,6 +13070,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:AN131"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>

--- a/industry/dsi_contract/data/contract.xlsx
+++ b/industry/dsi_contract/data/contract.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12920"/>
+    <workbookView windowWidth="28800" windowHeight="13220"/>
   </bookViews>
   <sheets>
     <sheet name="合同列表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">合同列表!$A$1:$AN$131</definedName>
@@ -2823,10 +2824,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2836,6 +2837,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2843,9 +2859,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2858,17 +2874,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2880,27 +2906,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2914,14 +2923,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2943,15 +2960,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2965,23 +2981,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2996,19 +2997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3020,7 +3015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3038,19 +3033,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3068,85 +3063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3164,7 +3081,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3176,7 +3135,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3190,17 +3191,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3237,18 +3241,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3270,168 +3267,172 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3793,7 +3794,7 @@
   <dimension ref="A1:AN131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -13075,4 +13076,224 @@
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D5:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="14.1875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/industry/dsi_contract/data/contract.xlsx
+++ b/industry/dsi_contract/data/contract.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13220"/>
+    <workbookView windowWidth="28800" windowHeight="13220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="合同列表" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">合同列表!$A$1:$AN$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$H$5:$H$14</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3793,8 +3794,8 @@
   <sheetPr/>
   <dimension ref="A1:AN131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -13081,30 +13082,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D5:D44"/>
+  <dimension ref="D5:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="14.1875" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:4">
+    <row r="5" spans="4:8">
       <c r="D5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="4:4">
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8">
       <c r="D6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="4:4">
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8">
       <c r="D7" t="s">
         <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="4:4">
@@ -13117,19 +13128,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="4:8">
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="4:4">
+      <c r="H10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
       <c r="D11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="4:4">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
       <c r="D12" t="s">
         <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="4:4">
@@ -13137,9 +13157,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="4:8">
       <c r="D14" t="s">
         <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="4:4">
@@ -13177,9 +13200,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:8">
       <c r="D22" t="s">
         <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="4:4">
@@ -13187,14 +13213,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:8">
       <c r="D24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="4:4">
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
       <c r="D25" t="s">
         <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="4:4">
@@ -13202,24 +13234,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:8">
       <c r="D27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="4:4">
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8">
       <c r="D28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="4:4">
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8">
       <c r="D29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="4:4">
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8">
       <c r="D30" t="s">
         <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="4:4">
@@ -13227,19 +13271,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:8">
       <c r="D32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="4:4">
+      <c r="H32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8">
       <c r="D33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="4:4">
+      <c r="H33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8">
       <c r="D34" t="s">
         <v>29</v>
+      </c>
+      <c r="H34" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="4:4">
@@ -13252,47 +13305,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:8">
       <c r="D37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="4:4">
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8">
       <c r="D38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="4:4">
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8">
       <c r="D39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="4:4">
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8">
       <c r="D40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="4:4">
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8">
       <c r="D41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="4:4">
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8">
       <c r="D42" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="4:4">
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8">
       <c r="D43" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="4:4">
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8">
       <c r="D44" t="s">
         <v>39</v>
       </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="H5:H14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
